--- a/decoded_log.xlsx
+++ b/decoded_log.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Plot" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="4762500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53898,14 +53929,27 @@
       <c r="N862" t="n">
         <v>0</v>
       </c>
-      <c r="O862" t="inlineStr"/>
-      <c r="P862" t="inlineStr"/>
-      <c r="Q862" t="inlineStr"/>
-      <c r="R862" t="inlineStr"/>
-      <c r="S862" t="inlineStr"/>
-      <c r="T862" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>